--- a/docs/assets/disciplinas/LOM3244.xlsx
+++ b/docs/assets/disciplinas/LOM3244.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Estudar os princípios e aplicações de sensores e transdutores de vários tipos de grandezas físicas: mecânicas, térmicas, luminosas, acústicas, elétricas e ambientais, para aplicações científicas, industriais e cotidianas.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,61 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Sensores, transdutores e circuitos eletrônicos para medição de vários tipos de grandezas físicas.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Introdução à análise dos sistemas lineares. Conceitos e características fundamentais dos sensores e transdutores aplicados à instrumentação. Sensores resistivos. Sensores de temperatura. Circuitos em ponte de Wheatstone. Sensores capacitivos e indutivos. Sensores de proximidade. Circuitos em ponte c.a. Transdutores piezelétricos, magnéticos e eletrodinâmicos. Transdutores de vazão. Transdutores do tipo força-balanço. Transdutores para temperatura e radiação. Sensores para instrumentação analítica: condutividade elétrica, atividade iônica, pH e potencial. Sistemas de condicionamento de sinais para transdutores.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas expositivas e práticas ministradas em laboratório.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>FRADEN, J., Handbook of Modern Sensors - Physics, Designs, and Applications, Springer-Verlag, 1996.
-WEBSTER, J. G. The Measurement Instrumentation and Sensors Handbook, CRC Press, 1999.
-LIPTAK, B. G. Instrument Engineers Handbook, CRC Press, 2003.
-SINCLAIR, I. Sensors and Transducers, Newnes, 2007.
-ANDERSON, N. A. Instrumentation for Process Measurement and Control, CRC Press, 1997.
-WEBSTER, J. G. Medical Instrumentation Application and Design, Wiley, 2009.
-RIEKE, G. H. Detection of Light: From the Ultraviolet to the Submillimeter, Cambridge University Press, 2003.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -685,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -696,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
